--- a/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
+++ b/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_00 UN Volunteers\Side-Projects\Nobel Prize Winners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815E10E-2AD5-4156-990F-0D66369B04D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A9DD2-8E34-4225-BC92-7A260431DAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="13050" windowHeight="15585" xr2:uid="{848C2F06-2C61-4C99-853F-34F3C8B0E17F}"/>
   </bookViews>

--- a/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
+++ b/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_00 UN Volunteers\Side-Projects\Nobel Prize Winners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A9DD2-8E34-4225-BC92-7A260431DAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F88AC-6B36-41FC-84CC-27C1CB3ADD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="13050" windowHeight="15585" xr2:uid="{848C2F06-2C61-4C99-853F-34F3C8B0E17F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="283">
   <si>
     <t>CountryName</t>
   </si>
@@ -708,6 +708,180 @@
   </si>
   <si>
     <t>Netherlands</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Born 7 June 1862, Pressburg (now Bratislava), Hungary (now Slovakia)</t>
+  </si>
+  <si>
+    <t>Born 19 December 1852, Strelno (now Strzelno), Prusia (now Poland)</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Born 6 June 1850, Fulda, Hesse-Kassel (now Germany)</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Born 13 January 1864, Gaffken (now Parusnoye), Prussia (now Russia)</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Born 23 April 1858, Kiel, Schleswig (now Germany)</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Born 17 February 1888, Sorau (now Zory), Germany (now Poland)</t>
+  </si>
+  <si>
+    <t>Born 29 July 1898, Rymanow, Austria-Hungary (now Poland)</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Born 11 December 1882, Breslau (now Wroclaw), Germany (now Poland)</t>
+  </si>
+  <si>
+    <t>Born 26 January 1911, Blankenburg, Germany (now Alsace (then Germany, now France))</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Born 22 January 1908, Baku, Russian Empire (now Azerbaijan)</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Born 17 November 1902, Budapest, Austria-Hungary (now Hungary)</t>
+  </si>
+  <si>
+    <t>Born 28 June 1906, Kattowitz (now Katowice), Germany (now Poland)</t>
+  </si>
+  <si>
+    <t>Born 14 December 1922, Usman, USSR</t>
+  </si>
+  <si>
+    <t>Born 11 July 1916, Atherton, Australia</t>
+  </si>
+  <si>
+    <t>Born 3 May 1902, Guebwiller, Germany (now France)</t>
+  </si>
+  <si>
+    <t>Born 2 July 1906, Strassburg (now Strasbourg), Germany (now France)</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Born 9 July 1894, Kronshtadt, Russian Empire (now Russia)</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Born 29 January 1926, Jhang Maghiāna, India (now Pakistan)</t>
+  </si>
+  <si>
+    <t>Born 19 October 1910, Lahore, India (now Pakistan)</t>
+  </si>
+  <si>
+    <t>Born 28 June 1943, Schroda, German-occupied Poland (now Poland)</t>
+  </si>
+  <si>
+    <t>Born 20 July 1947, Frankfurt-on-the-Main, West Germany (now Germany)</t>
+  </si>
+  <si>
+    <t>Born 16 May 1950, Neuenkirchen, West Germany (now Germany)</t>
+  </si>
+  <si>
+    <t>Born 9 September 1922, Görlitz, Prussia (now Germany)</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Born 1 August 1924, Dabrovica, Poland</t>
+  </si>
+  <si>
+    <t>Born 1 April 1933, Constantine, French Algeria (now Algeria)</t>
+  </si>
+  <si>
+    <t>Born 6 April 1949, Frankfurt-on-the-Main, West Germany (now Germany)</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Born 15 March 1930, Vitebsk, Belorussia, USSR (now Belarus)</t>
+  </si>
+  <si>
+    <t>Born 21 October 1957, Heidelberg, West Germany (now Germany)</t>
+  </si>
+  <si>
+    <t>Born 25 June 1928, Moscow, USSR (now Russia)</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Born 18 May 1939, Plzen, Czechoslovakia (now Czech Republic)</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>The Nobel Prize website omitted his date of birth and his nationality</t>
+  </si>
+  <si>
+    <t>Born 11 September 1944, Casablanca, Morocco</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9720BC-6C99-4361-B521-98BEB9A4DD49}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1248,7 @@
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
@@ -1151,6 +1325,9 @@
       <c r="C5" t="s">
         <v>218</v>
       </c>
+      <c r="D5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1162,6 +1339,9 @@
       <c r="C6" t="s">
         <v>219</v>
       </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1173,6 +1353,9 @@
       <c r="C7" t="s">
         <v>218</v>
       </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1184,6 +1367,9 @@
       <c r="C8" t="s">
         <v>218</v>
       </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1195,6 +1381,12 @@
       <c r="C9" t="s">
         <v>218</v>
       </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1206,6 +1398,9 @@
       <c r="C10" t="s">
         <v>218</v>
       </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1217,6 +1412,12 @@
       <c r="C11" t="s">
         <v>218</v>
       </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1228,6 +1429,9 @@
       <c r="C12" t="s">
         <v>218</v>
       </c>
+      <c r="D12" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1239,6 +1443,9 @@
       <c r="C13" t="s">
         <v>218</v>
       </c>
+      <c r="D13" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1250,6 +1457,12 @@
       <c r="C14" t="s">
         <v>218</v>
       </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1261,6 +1474,9 @@
       <c r="C15" t="s">
         <v>218</v>
       </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1272,6 +1488,12 @@
       <c r="C16" t="s">
         <v>218</v>
       </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1283,6 +1505,9 @@
       <c r="C17" t="s">
         <v>218</v>
       </c>
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1294,6 +1519,9 @@
       <c r="C18" t="s">
         <v>218</v>
       </c>
+      <c r="D18" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1305,6 +1533,9 @@
       <c r="C19" t="s">
         <v>218</v>
       </c>
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1316,6 +1547,9 @@
       <c r="C20" t="s">
         <v>218</v>
       </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1327,6 +1561,9 @@
       <c r="C21" t="s">
         <v>218</v>
       </c>
+      <c r="D21" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
@@ -1346,6 +1583,9 @@
       <c r="C23" t="s">
         <v>218</v>
       </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1357,6 +1597,12 @@
       <c r="C24" t="s">
         <v>218</v>
       </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1368,6 +1614,9 @@
       <c r="C25" t="s">
         <v>218</v>
       </c>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1379,6 +1628,9 @@
       <c r="C26" t="s">
         <v>218</v>
       </c>
+      <c r="D26" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1390,6 +1642,9 @@
       <c r="C27" t="s">
         <v>218</v>
       </c>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1401,6 +1656,9 @@
       <c r="C28" t="s">
         <v>218</v>
       </c>
+      <c r="D28" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1412,6 +1670,9 @@
       <c r="C29" t="s">
         <v>218</v>
       </c>
+      <c r="D29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1423,6 +1684,9 @@
       <c r="C30" t="s">
         <v>218</v>
       </c>
+      <c r="D30" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1434,6 +1698,9 @@
       <c r="C31" t="s">
         <v>218</v>
       </c>
+      <c r="D31" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1445,6 +1712,9 @@
       <c r="C32" t="s">
         <v>218</v>
       </c>
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1456,6 +1726,9 @@
       <c r="C33" t="s">
         <v>218</v>
       </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1467,6 +1740,9 @@
       <c r="C34" t="s">
         <v>218</v>
       </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1478,6 +1754,9 @@
       <c r="C35" t="s">
         <v>218</v>
       </c>
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1489,6 +1768,9 @@
       <c r="C36" t="s">
         <v>218</v>
       </c>
+      <c r="D36" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1500,6 +1782,9 @@
       <c r="C37" t="s">
         <v>218</v>
       </c>
+      <c r="D37" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1511,6 +1796,9 @@
       <c r="C38" t="s">
         <v>218</v>
       </c>
+      <c r="D38" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -1530,6 +1818,9 @@
       <c r="C40" t="s">
         <v>218</v>
       </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1541,6 +1832,9 @@
       <c r="C41" t="s">
         <v>218</v>
       </c>
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1552,6 +1846,9 @@
       <c r="C42" t="s">
         <v>218</v>
       </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
@@ -1571,6 +1868,9 @@
       <c r="C44" t="s">
         <v>218</v>
       </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1582,6 +1882,9 @@
       <c r="C45" t="s">
         <v>218</v>
       </c>
+      <c r="D45" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1593,6 +1896,9 @@
       <c r="C46" t="s">
         <v>218</v>
       </c>
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1604,6 +1910,9 @@
       <c r="C47" t="s">
         <v>218</v>
       </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1615,6 +1924,9 @@
       <c r="C48" t="s">
         <v>218</v>
       </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1626,6 +1938,9 @@
       <c r="C49" t="s">
         <v>218</v>
       </c>
+      <c r="D49" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1637,6 +1952,9 @@
       <c r="C50" t="s">
         <v>218</v>
       </c>
+      <c r="D50" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
@@ -1672,6 +1990,12 @@
       <c r="C54" t="s">
         <v>218</v>
       </c>
+      <c r="D54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -1683,6 +2007,12 @@
       <c r="C55" t="s">
         <v>218</v>
       </c>
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -1694,6 +2024,9 @@
       <c r="C56" t="s">
         <v>218</v>
       </c>
+      <c r="D56" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -1705,6 +2038,9 @@
       <c r="C57" t="s">
         <v>218</v>
       </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1716,6 +2052,9 @@
       <c r="C58" t="s">
         <v>218</v>
       </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1727,6 +2066,9 @@
       <c r="C59" t="s">
         <v>218</v>
       </c>
+      <c r="D59" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1738,6 +2080,9 @@
       <c r="C60" t="s">
         <v>218</v>
       </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1749,6 +2094,9 @@
       <c r="C61" t="s">
         <v>218</v>
       </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1760,6 +2108,9 @@
       <c r="C62" t="s">
         <v>218</v>
       </c>
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -1771,6 +2122,9 @@
       <c r="C63" t="s">
         <v>218</v>
       </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1782,8 +2136,11 @@
       <c r="C64" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1793,8 +2150,11 @@
       <c r="C65" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1804,8 +2164,11 @@
       <c r="C66" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1815,8 +2178,14 @@
       <c r="C67" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1826,8 +2195,11 @@
       <c r="C68" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1837,8 +2209,11 @@
       <c r="C69" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1848,8 +2223,14 @@
       <c r="C70" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1859,8 +2240,11 @@
       <c r="C71" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1870,8 +2254,11 @@
       <c r="C72" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1881,8 +2268,11 @@
       <c r="C73" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1892,8 +2282,11 @@
       <c r="C74" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1903,8 +2296,11 @@
       <c r="C75" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1914,8 +2310,11 @@
       <c r="C76" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -1925,8 +2324,11 @@
       <c r="C77" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -1936,8 +2338,11 @@
       <c r="C78" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1947,8 +2352,11 @@
       <c r="C79" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -1958,8 +2366,11 @@
       <c r="C80" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -1969,8 +2380,11 @@
       <c r="C81" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -1980,8 +2394,11 @@
       <c r="C82" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -1991,8 +2408,11 @@
       <c r="C83" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2002,8 +2422,14 @@
       <c r="C84" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -2013,8 +2439,14 @@
       <c r="C85" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>253</v>
+      </c>
+      <c r="F85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2024,8 +2456,14 @@
       <c r="C86" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2035,8 +2473,11 @@
       <c r="C87" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2046,8 +2487,11 @@
       <c r="C88" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2057,8 +2501,14 @@
       <c r="C89" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2068,8 +2518,14 @@
       <c r="C90" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2079,8 +2535,11 @@
       <c r="C91" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2090,8 +2549,11 @@
       <c r="C92" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2101,8 +2563,11 @@
       <c r="C93" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2112,8 +2577,14 @@
       <c r="C94" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -2123,8 +2594,14 @@
       <c r="C95" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>225</v>
+      </c>
+      <c r="F95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -2134,8 +2611,11 @@
       <c r="C96" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2145,8 +2625,11 @@
       <c r="C97" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2156,8 +2639,11 @@
       <c r="C98" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2167,8 +2653,11 @@
       <c r="C99" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -2178,8 +2667,11 @@
       <c r="C100" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>70</v>
       </c>
@@ -2189,8 +2681,11 @@
       <c r="C101" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -2200,8 +2695,11 @@
       <c r="C102" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -2211,8 +2709,11 @@
       <c r="C103" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -2222,8 +2723,11 @@
       <c r="C104" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
@@ -2233,8 +2737,11 @@
       <c r="C105" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
@@ -2244,8 +2751,11 @@
       <c r="C106" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
@@ -2255,8 +2765,11 @@
       <c r="C107" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
@@ -2266,8 +2779,11 @@
       <c r="C108" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
@@ -2277,8 +2793,11 @@
       <c r="C109" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
@@ -2288,8 +2807,11 @@
       <c r="C110" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
@@ -2299,8 +2821,11 @@
       <c r="C111" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
@@ -2310,8 +2835,11 @@
       <c r="C112" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
@@ -2321,8 +2849,11 @@
       <c r="C113" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -2332,8 +2863,11 @@
       <c r="C114" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
@@ -2343,8 +2877,11 @@
       <c r="C115" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
@@ -2354,8 +2891,11 @@
       <c r="C116" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
@@ -2365,8 +2905,14 @@
       <c r="C117" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
@@ -2376,8 +2922,11 @@
       <c r="C118" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
@@ -2387,8 +2936,11 @@
       <c r="C119" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
@@ -2398,8 +2950,11 @@
       <c r="C120" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
@@ -2409,8 +2964,14 @@
       <c r="C121" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
@@ -2420,8 +2981,11 @@
       <c r="C122" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
@@ -2431,8 +2995,11 @@
       <c r="C123" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
@@ -2442,8 +3009,11 @@
       <c r="C124" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
@@ -2453,8 +3023,11 @@
       <c r="C125" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -2464,8 +3037,11 @@
       <c r="C126" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
@@ -2475,8 +3051,11 @@
       <c r="C127" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
@@ -2486,8 +3065,11 @@
       <c r="C128" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
@@ -2497,8 +3079,14 @@
       <c r="C129" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>262</v>
+      </c>
+      <c r="F129" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
@@ -2508,8 +3096,11 @@
       <c r="C130" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
@@ -2519,8 +3110,11 @@
       <c r="C131" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
@@ -2530,8 +3124,11 @@
       <c r="C132" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
@@ -2541,8 +3138,14 @@
       <c r="C133" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>226</v>
+      </c>
+      <c r="F133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
@@ -2552,8 +3155,11 @@
       <c r="C134" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
@@ -2563,8 +3169,14 @@
       <c r="C135" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>223</v>
+      </c>
+      <c r="F135" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
@@ -2574,8 +3186,11 @@
       <c r="C136" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -2585,8 +3200,14 @@
       <c r="C137" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>223</v>
+      </c>
+      <c r="F137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
@@ -2596,8 +3217,11 @@
       <c r="C138" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
@@ -2607,8 +3231,11 @@
       <c r="C139" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
@@ -2618,8 +3245,11 @@
       <c r="C140" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
@@ -2629,8 +3259,11 @@
       <c r="C141" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
@@ -2640,8 +3273,11 @@
       <c r="C142" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
@@ -2651,8 +3287,14 @@
       <c r="C143" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>223</v>
+      </c>
+      <c r="F143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
@@ -2662,8 +3304,11 @@
       <c r="C144" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -2673,8 +3318,11 @@
       <c r="C145" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>142</v>
       </c>
@@ -2684,8 +3332,11 @@
       <c r="C146" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>143</v>
       </c>
@@ -2695,8 +3346,11 @@
       <c r="C147" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>144</v>
       </c>
@@ -2706,8 +3360,11 @@
       <c r="C148" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>145</v>
       </c>
@@ -2717,8 +3374,14 @@
       <c r="C149" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>225</v>
+      </c>
+      <c r="F149" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
@@ -2728,8 +3391,11 @@
       <c r="C150" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>147</v>
       </c>
@@ -2739,8 +3405,11 @@
       <c r="C151" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>175</v>
       </c>
@@ -2751,7 +3420,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>148</v>
       </c>
@@ -2761,8 +3430,11 @@
       <c r="C153" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>149</v>
       </c>
@@ -2772,8 +3444,11 @@
       <c r="C154" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -2784,7 +3459,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
@@ -2794,8 +3469,11 @@
       <c r="C156" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
@@ -2805,8 +3483,11 @@
       <c r="C157" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
@@ -2816,8 +3497,11 @@
       <c r="C158" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
@@ -2827,8 +3511,11 @@
       <c r="C159" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>154</v>
       </c>
@@ -2838,8 +3525,11 @@
       <c r="C160" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>155</v>
       </c>
@@ -2849,8 +3539,11 @@
       <c r="C161" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>156</v>
       </c>
@@ -2860,8 +3553,14 @@
       <c r="C162" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>225</v>
+      </c>
+      <c r="F162" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>157</v>
       </c>
@@ -2871,8 +3570,11 @@
       <c r="C163" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
@@ -2882,8 +3584,11 @@
       <c r="C164" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>159</v>
       </c>
@@ -2893,8 +3598,14 @@
       <c r="C165" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>223</v>
+      </c>
+      <c r="F165" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>160</v>
       </c>
@@ -2904,8 +3615,11 @@
       <c r="C166" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>161</v>
       </c>
@@ -2915,8 +3629,11 @@
       <c r="C167" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -2926,8 +3643,11 @@
       <c r="C168" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>175</v>
       </c>
@@ -2938,7 +3658,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>163</v>
       </c>
@@ -2948,8 +3668,14 @@
       <c r="C170" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>273</v>
+      </c>
+      <c r="F170" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>164</v>
       </c>
@@ -2959,8 +3685,11 @@
       <c r="C171" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>165</v>
       </c>
@@ -2970,8 +3699,11 @@
       <c r="C172" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>166</v>
       </c>
@@ -2981,8 +3713,11 @@
       <c r="C173" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>167</v>
       </c>
@@ -2992,8 +3727,14 @@
       <c r="C174" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>223</v>
+      </c>
+      <c r="F174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>168</v>
       </c>
@@ -3003,8 +3744,11 @@
       <c r="C175" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>169</v>
       </c>
@@ -3014,8 +3758,11 @@
       <c r="C176" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>170</v>
       </c>
@@ -3025,8 +3772,11 @@
       <c r="C177" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>171</v>
       </c>
@@ -3036,8 +3786,11 @@
       <c r="C178" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
@@ -3047,8 +3800,14 @@
       <c r="C179" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>234</v>
+      </c>
+      <c r="F179" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>173</v>
       </c>
@@ -3058,8 +3817,11 @@
       <c r="C180" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>174</v>
       </c>
@@ -3069,8 +3831,11 @@
       <c r="C181" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>176</v>
       </c>
@@ -3080,8 +3845,11 @@
       <c r="C182" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>177</v>
       </c>
@@ -3091,8 +3859,11 @@
       <c r="C183" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>178</v>
       </c>
@@ -3102,8 +3873,11 @@
       <c r="C184" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>179</v>
       </c>
@@ -3113,8 +3887,11 @@
       <c r="C185" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>180</v>
       </c>
@@ -3124,8 +3901,11 @@
       <c r="C186" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -3135,8 +3915,11 @@
       <c r="C187" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>182</v>
       </c>
@@ -3146,8 +3929,11 @@
       <c r="C188" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
@@ -3157,8 +3943,11 @@
       <c r="C189" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>184</v>
       </c>
@@ -3168,8 +3957,11 @@
       <c r="C190" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>185</v>
       </c>
@@ -3179,8 +3971,14 @@
       <c r="C191" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>277</v>
+      </c>
+      <c r="F191" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>186</v>
       </c>
@@ -3190,8 +3988,11 @@
       <c r="C192" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>187</v>
       </c>
@@ -3201,8 +4002,11 @@
       <c r="C193" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>188</v>
       </c>
@@ -3212,8 +4016,11 @@
       <c r="C194" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>189</v>
       </c>
@@ -3223,8 +4030,11 @@
       <c r="C195" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>190</v>
       </c>
@@ -3234,8 +4044,11 @@
       <c r="C196" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>191</v>
       </c>
@@ -3245,8 +4058,11 @@
       <c r="C197" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>192</v>
       </c>
@@ -3256,8 +4072,11 @@
       <c r="C198" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
@@ -3267,8 +4086,11 @@
       <c r="C199" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>194</v>
       </c>
@@ -3278,8 +4100,14 @@
       <c r="C200" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>241</v>
+      </c>
+      <c r="F200" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>195</v>
       </c>
@@ -3289,8 +4117,11 @@
       <c r="C201" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>196</v>
       </c>
@@ -3300,8 +4131,11 @@
       <c r="C202" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>197</v>
       </c>
@@ -3311,8 +4145,14 @@
       <c r="C203" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>225</v>
+      </c>
+      <c r="F203" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -3322,8 +4162,11 @@
       <c r="C204" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>199</v>
       </c>
@@ -3333,8 +4176,11 @@
       <c r="C205" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>200</v>
       </c>
@@ -3344,8 +4190,11 @@
       <c r="C206" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>201</v>
       </c>
@@ -3355,8 +4204,11 @@
       <c r="C207" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>202</v>
       </c>
@@ -3366,8 +4218,11 @@
       <c r="C208" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>203</v>
       </c>
@@ -3377,8 +4232,11 @@
       <c r="C209" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>204</v>
       </c>
@@ -3388,8 +4246,11 @@
       <c r="C210" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>205</v>
       </c>
@@ -3399,8 +4260,11 @@
       <c r="C211" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>206</v>
       </c>
@@ -3410,8 +4274,11 @@
       <c r="C212" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>207</v>
       </c>
@@ -3421,8 +4288,11 @@
       <c r="C213" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>208</v>
       </c>
@@ -3432,8 +4302,11 @@
       <c r="C214" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>209</v>
       </c>
@@ -3443,8 +4316,11 @@
       <c r="C215" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
@@ -3454,8 +4330,11 @@
       <c r="C216" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>211</v>
       </c>
@@ -3465,8 +4344,11 @@
       <c r="C217" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>175</v>
       </c>
@@ -3477,7 +4359,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>212</v>
       </c>
@@ -3487,8 +4369,11 @@
       <c r="C219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>213</v>
       </c>
@@ -3498,8 +4383,11 @@
       <c r="C220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>214</v>
       </c>
@@ -3509,8 +4397,11 @@
       <c r="C221" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>175</v>
       </c>
@@ -3521,7 +4412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>215</v>
       </c>
@@ -3531,8 +4422,11 @@
       <c r="C223" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>216</v>
       </c>
@@ -3542,8 +4436,11 @@
       <c r="C224" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>217</v>
       </c>
@@ -3552,6 +4449,9 @@
       </c>
       <c r="C225" t="s">
         <v>218</v>
+      </c>
+      <c r="D225" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
+++ b/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_00 UN Volunteers\Side-Projects\Nobel Prize Winners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F88AC-6B36-41FC-84CC-27C1CB3ADD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D88260-9019-4ADF-9926-FA8680FA2BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="13050" windowHeight="15585" xr2:uid="{848C2F06-2C61-4C99-853F-34F3C8B0E17F}"/>
+    <workbookView xWindow="16680" yWindow="45" windowWidth="12135" windowHeight="15585" xr2:uid="{848C2F06-2C61-4C99-853F-34F3C8B0E17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Nobel_Physics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="311">
   <si>
     <t>CountryName</t>
   </si>
@@ -882,6 +882,90 @@
   </si>
   <si>
     <t>Belgium</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>HKG</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9720BC-6C99-4361-B521-98BEB9A4DD49}">
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,6 +1370,9 @@
       <c r="D2" t="s">
         <v>223</v>
       </c>
+      <c r="E2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1300,6 +1387,9 @@
       <c r="D3" t="s">
         <v>224</v>
       </c>
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1314,6 +1404,9 @@
       <c r="D4" t="s">
         <v>224</v>
       </c>
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1328,6 +1421,9 @@
       <c r="D5" t="s">
         <v>225</v>
       </c>
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1342,6 +1438,9 @@
       <c r="D6" t="s">
         <v>226</v>
       </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1356,6 +1455,9 @@
       <c r="D7" t="s">
         <v>225</v>
       </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1370,6 +1472,9 @@
       <c r="D8" t="s">
         <v>227</v>
       </c>
+      <c r="E8" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1384,6 +1489,9 @@
       <c r="D9" t="s">
         <v>228</v>
       </c>
+      <c r="E9" t="s">
+        <v>295</v>
+      </c>
       <c r="F9" t="s">
         <v>229</v>
       </c>
@@ -1401,6 +1509,9 @@
       <c r="D10" t="s">
         <v>227</v>
       </c>
+      <c r="E10" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1415,6 +1526,9 @@
       <c r="D11" t="s">
         <v>226</v>
       </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
       <c r="F11" t="s">
         <v>230</v>
       </c>
@@ -1432,6 +1546,9 @@
       <c r="D12" t="s">
         <v>231</v>
       </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1446,6 +1563,9 @@
       <c r="D13" t="s">
         <v>232</v>
       </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1460,6 +1580,9 @@
       <c r="D14" t="s">
         <v>223</v>
       </c>
+      <c r="E14" t="s">
+        <v>283</v>
+      </c>
       <c r="F14" t="s">
         <v>233</v>
       </c>
@@ -1477,6 +1600,9 @@
       <c r="D15" t="s">
         <v>224</v>
       </c>
+      <c r="E15" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1491,6 +1617,9 @@
       <c r="D16" t="s">
         <v>234</v>
       </c>
+      <c r="E16" t="s">
+        <v>289</v>
+      </c>
       <c r="F16" t="s">
         <v>235</v>
       </c>
@@ -1508,6 +1637,9 @@
       <c r="D17" t="s">
         <v>236</v>
       </c>
+      <c r="E17" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1522,6 +1654,9 @@
       <c r="D18" t="s">
         <v>224</v>
       </c>
+      <c r="E18" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1536,6 +1671,9 @@
       <c r="D19" t="s">
         <v>223</v>
       </c>
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1550,6 +1688,9 @@
       <c r="D20" t="s">
         <v>227</v>
       </c>
+      <c r="E20" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1564,6 +1705,9 @@
       <c r="D21" t="s">
         <v>237</v>
       </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
@@ -1586,6 +1730,9 @@
       <c r="D23" t="s">
         <v>227</v>
       </c>
+      <c r="E23" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1600,6 +1747,9 @@
       <c r="D24" t="s">
         <v>223</v>
       </c>
+      <c r="E24" t="s">
+        <v>283</v>
+      </c>
       <c r="F24" t="s">
         <v>238</v>
       </c>
@@ -1617,6 +1767,9 @@
       <c r="D25" t="s">
         <v>223</v>
       </c>
+      <c r="E25" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1631,6 +1784,9 @@
       <c r="D26" t="s">
         <v>239</v>
       </c>
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1645,6 +1801,9 @@
       <c r="D27" t="s">
         <v>223</v>
       </c>
+      <c r="E27" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1659,6 +1818,9 @@
       <c r="D28" t="s">
         <v>240</v>
       </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1673,6 +1835,9 @@
       <c r="D29" t="s">
         <v>241</v>
       </c>
+      <c r="E29" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1687,6 +1852,9 @@
       <c r="D30" t="s">
         <v>236</v>
       </c>
+      <c r="E30" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1701,6 +1869,9 @@
       <c r="D31" t="s">
         <v>223</v>
       </c>
+      <c r="E31" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1715,6 +1886,9 @@
       <c r="D32" t="s">
         <v>223</v>
       </c>
+      <c r="E32" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1729,6 +1903,9 @@
       <c r="D33" t="s">
         <v>225</v>
       </c>
+      <c r="E33" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1743,6 +1920,9 @@
       <c r="D34" t="s">
         <v>241</v>
       </c>
+      <c r="E34" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1757,6 +1937,9 @@
       <c r="D35" t="s">
         <v>242</v>
       </c>
+      <c r="E35" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1771,6 +1954,9 @@
       <c r="D36" t="s">
         <v>227</v>
       </c>
+      <c r="E36" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1785,6 +1971,9 @@
       <c r="D37" t="s">
         <v>225</v>
       </c>
+      <c r="E37" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1799,6 +1988,9 @@
       <c r="D38" t="s">
         <v>243</v>
       </c>
+      <c r="E38" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -1821,6 +2013,9 @@
       <c r="D40" t="s">
         <v>223</v>
       </c>
+      <c r="E40" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1835,6 +2030,9 @@
       <c r="D41" t="s">
         <v>244</v>
       </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1849,6 +2047,9 @@
       <c r="D42" t="s">
         <v>227</v>
       </c>
+      <c r="E42" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
@@ -1871,6 +2072,9 @@
       <c r="D44" t="s">
         <v>227</v>
       </c>
+      <c r="E44" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1885,6 +2089,9 @@
       <c r="D45" t="s">
         <v>244</v>
       </c>
+      <c r="E45" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1899,6 +2106,9 @@
       <c r="D46" t="s">
         <v>241</v>
       </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1913,6 +2123,9 @@
       <c r="D47" t="s">
         <v>241</v>
       </c>
+      <c r="E47" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1927,6 +2140,9 @@
       <c r="D48" t="s">
         <v>227</v>
       </c>
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1941,6 +2157,9 @@
       <c r="D49" t="s">
         <v>232</v>
       </c>
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1955,6 +2174,9 @@
       <c r="D50" t="s">
         <v>241</v>
       </c>
+      <c r="E50" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
@@ -1993,6 +2215,9 @@
       <c r="D54" t="s">
         <v>226</v>
       </c>
+      <c r="E54" t="s">
+        <v>286</v>
+      </c>
       <c r="F54" t="s">
         <v>245</v>
       </c>
@@ -2010,6 +2235,9 @@
       <c r="D55" t="s">
         <v>226</v>
       </c>
+      <c r="E55" t="s">
+        <v>286</v>
+      </c>
       <c r="F55" t="s">
         <v>246</v>
       </c>
@@ -2027,6 +2255,9 @@
       <c r="D56" t="s">
         <v>244</v>
       </c>
+      <c r="E56" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2041,6 +2272,9 @@
       <c r="D57" t="s">
         <v>241</v>
       </c>
+      <c r="E57" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2055,6 +2289,9 @@
       <c r="D58" t="s">
         <v>227</v>
       </c>
+      <c r="E58" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2069,6 +2306,9 @@
       <c r="D59" t="s">
         <v>227</v>
       </c>
+      <c r="E59" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -2083,6 +2323,9 @@
       <c r="D60" t="s">
         <v>247</v>
       </c>
+      <c r="E60" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2097,6 +2340,9 @@
       <c r="D61" t="s">
         <v>227</v>
       </c>
+      <c r="E61" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2111,6 +2357,9 @@
       <c r="D62" t="s">
         <v>227</v>
       </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2125,6 +2374,9 @@
       <c r="D63" t="s">
         <v>248</v>
       </c>
+      <c r="E63" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2139,6 +2391,9 @@
       <c r="D64" t="s">
         <v>239</v>
       </c>
+      <c r="E64" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2153,6 +2408,9 @@
       <c r="D65" t="s">
         <v>241</v>
       </c>
+      <c r="E65" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2167,6 +2425,9 @@
       <c r="D66" t="s">
         <v>224</v>
       </c>
+      <c r="E66" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -2181,6 +2442,9 @@
       <c r="D67" t="s">
         <v>226</v>
       </c>
+      <c r="E67" t="s">
+        <v>286</v>
+      </c>
       <c r="F67" t="s">
         <v>249</v>
       </c>
@@ -2198,6 +2462,9 @@
       <c r="D68" t="s">
         <v>223</v>
       </c>
+      <c r="E68" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -2212,6 +2479,9 @@
       <c r="D69" t="s">
         <v>241</v>
       </c>
+      <c r="E69" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2226,6 +2496,9 @@
       <c r="D70" t="s">
         <v>225</v>
       </c>
+      <c r="E70" t="s">
+        <v>285</v>
+      </c>
       <c r="F70" t="s">
         <v>250</v>
       </c>
@@ -2243,6 +2516,9 @@
       <c r="D71" t="s">
         <v>227</v>
       </c>
+      <c r="E71" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -2257,6 +2533,9 @@
       <c r="D72" t="s">
         <v>241</v>
       </c>
+      <c r="E72" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2271,6 +2550,9 @@
       <c r="D73" t="s">
         <v>241</v>
       </c>
+      <c r="E73" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2285,6 +2567,9 @@
       <c r="D74" t="s">
         <v>251</v>
       </c>
+      <c r="E74" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2299,6 +2584,9 @@
       <c r="D75" t="s">
         <v>251</v>
       </c>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2313,6 +2601,9 @@
       <c r="D76" t="s">
         <v>234</v>
       </c>
+      <c r="E76" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2327,6 +2618,9 @@
       <c r="D77" t="s">
         <v>234</v>
       </c>
+      <c r="E77" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2341,6 +2635,9 @@
       <c r="D78" t="s">
         <v>234</v>
       </c>
+      <c r="E78" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -2355,6 +2652,9 @@
       <c r="D79" t="s">
         <v>232</v>
       </c>
+      <c r="E79" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2369,6 +2669,9 @@
       <c r="D80" t="s">
         <v>241</v>
       </c>
+      <c r="E80" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2383,6 +2686,9 @@
       <c r="D81" t="s">
         <v>241</v>
       </c>
+      <c r="E81" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2397,6 +2703,9 @@
       <c r="D82" t="s">
         <v>241</v>
       </c>
+      <c r="E82" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -2411,6 +2720,9 @@
       <c r="D83" t="s">
         <v>223</v>
       </c>
+      <c r="E83" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2425,6 +2737,9 @@
       <c r="D84" t="s">
         <v>234</v>
       </c>
+      <c r="E84" t="s">
+        <v>289</v>
+      </c>
       <c r="F84" t="s">
         <v>252</v>
       </c>
@@ -2442,6 +2757,9 @@
       <c r="D85" t="s">
         <v>253</v>
       </c>
+      <c r="E85" t="s">
+        <v>296</v>
+      </c>
       <c r="F85" t="s">
         <v>254</v>
       </c>
@@ -2459,6 +2777,9 @@
       <c r="D86" t="s">
         <v>226</v>
       </c>
+      <c r="E86" t="s">
+        <v>286</v>
+      </c>
       <c r="F86" t="s">
         <v>255</v>
       </c>
@@ -2476,6 +2797,9 @@
       <c r="D87" t="s">
         <v>223</v>
       </c>
+      <c r="E87" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -2490,6 +2814,9 @@
       <c r="D88" t="s">
         <v>241</v>
       </c>
+      <c r="E88" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2504,6 +2831,9 @@
       <c r="D89" t="s">
         <v>234</v>
       </c>
+      <c r="E89" t="s">
+        <v>289</v>
+      </c>
       <c r="F89" t="s">
         <v>256</v>
       </c>
@@ -2521,6 +2851,9 @@
       <c r="D90" t="s">
         <v>234</v>
       </c>
+      <c r="E90" t="s">
+        <v>289</v>
+      </c>
       <c r="F90" t="s">
         <v>257</v>
       </c>
@@ -2538,6 +2871,9 @@
       <c r="D91" t="s">
         <v>247</v>
       </c>
+      <c r="E91" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2552,6 +2888,9 @@
       <c r="D92" t="s">
         <v>241</v>
       </c>
+      <c r="E92" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -2566,6 +2905,9 @@
       <c r="D93" t="s">
         <v>241</v>
       </c>
+      <c r="E93" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2580,6 +2922,9 @@
       <c r="D94" t="s">
         <v>225</v>
       </c>
+      <c r="E94" t="s">
+        <v>285</v>
+      </c>
       <c r="F94" t="s">
         <v>258</v>
       </c>
@@ -2597,6 +2942,9 @@
       <c r="D95" t="s">
         <v>225</v>
       </c>
+      <c r="E95" t="s">
+        <v>285</v>
+      </c>
       <c r="F95" t="s">
         <v>259</v>
       </c>
@@ -2614,8 +2962,11 @@
       <c r="D96" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2628,8 +2979,11 @@
       <c r="D97" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2642,8 +2996,11 @@
       <c r="D98" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2656,8 +3013,11 @@
       <c r="D99" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -2670,8 +3030,11 @@
       <c r="D100" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>70</v>
       </c>
@@ -2684,8 +3047,11 @@
       <c r="D101" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -2698,8 +3064,11 @@
       <c r="D102" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -2712,8 +3081,11 @@
       <c r="D103" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -2726,8 +3098,11 @@
       <c r="D104" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
@@ -2740,8 +3115,11 @@
       <c r="D105" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
@@ -2754,8 +3132,11 @@
       <c r="D106" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
@@ -2768,8 +3149,11 @@
       <c r="D107" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
@@ -2782,8 +3166,11 @@
       <c r="D108" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
@@ -2796,8 +3183,11 @@
       <c r="D109" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
@@ -2810,8 +3200,11 @@
       <c r="D110" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
@@ -2824,8 +3217,11 @@
       <c r="D111" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
@@ -2837,6 +3233,9 @@
       </c>
       <c r="D112" t="s">
         <v>241</v>
+      </c>
+      <c r="E112" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,6 +3251,9 @@
       <c r="D113" t="s">
         <v>241</v>
       </c>
+      <c r="E113" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2866,6 +3268,9 @@
       <c r="D114" t="s">
         <v>241</v>
       </c>
+      <c r="E114" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -2880,6 +3285,9 @@
       <c r="D115" t="s">
         <v>227</v>
       </c>
+      <c r="E115" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -2894,6 +3302,9 @@
       <c r="D116" t="s">
         <v>241</v>
       </c>
+      <c r="E116" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -2908,6 +3319,9 @@
       <c r="D117" t="s">
         <v>234</v>
       </c>
+      <c r="E117" t="s">
+        <v>289</v>
+      </c>
       <c r="F117" t="s">
         <v>261</v>
       </c>
@@ -2925,6 +3339,9 @@
       <c r="D118" t="s">
         <v>223</v>
       </c>
+      <c r="E118" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -2939,6 +3356,9 @@
       <c r="D119" t="s">
         <v>241</v>
       </c>
+      <c r="E119" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -2953,6 +3373,9 @@
       <c r="D120" t="s">
         <v>241</v>
       </c>
+      <c r="E120" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -2967,6 +3390,9 @@
       <c r="D121" t="s">
         <v>262</v>
       </c>
+      <c r="E121" t="s">
+        <v>298</v>
+      </c>
       <c r="F121" t="s">
         <v>263</v>
       </c>
@@ -2984,6 +3410,9 @@
       <c r="D122" t="s">
         <v>241</v>
       </c>
+      <c r="E122" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -2998,6 +3427,9 @@
       <c r="D123" t="s">
         <v>241</v>
       </c>
+      <c r="E123" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -3012,6 +3444,9 @@
       <c r="D124" t="s">
         <v>241</v>
       </c>
+      <c r="E124" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -3026,6 +3461,9 @@
       <c r="D125" t="s">
         <v>224</v>
       </c>
+      <c r="E125" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -3040,6 +3478,9 @@
       <c r="D126" t="s">
         <v>241</v>
       </c>
+      <c r="E126" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -3054,6 +3495,9 @@
       <c r="D127" t="s">
         <v>236</v>
       </c>
+      <c r="E127" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -3068,6 +3512,9 @@
       <c r="D128" t="s">
         <v>241</v>
       </c>
+      <c r="E128" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -3082,6 +3529,9 @@
       <c r="D129" t="s">
         <v>262</v>
       </c>
+      <c r="E129" t="s">
+        <v>298</v>
+      </c>
       <c r="F129" t="s">
         <v>264</v>
       </c>
@@ -3099,6 +3549,9 @@
       <c r="D130" t="s">
         <v>241</v>
       </c>
+      <c r="E130" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -3113,6 +3566,9 @@
       <c r="D131" t="s">
         <v>232</v>
       </c>
+      <c r="E131" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3127,6 +3583,9 @@
       <c r="D132" t="s">
         <v>224</v>
       </c>
+      <c r="E132" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -3141,6 +3600,9 @@
       <c r="D133" t="s">
         <v>226</v>
       </c>
+      <c r="E133" t="s">
+        <v>286</v>
+      </c>
       <c r="F133" t="s">
         <v>265</v>
       </c>
@@ -3158,6 +3620,9 @@
       <c r="D134" t="s">
         <v>223</v>
       </c>
+      <c r="E134" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -3172,6 +3637,9 @@
       <c r="D135" t="s">
         <v>223</v>
       </c>
+      <c r="E135" t="s">
+        <v>283</v>
+      </c>
       <c r="F135" t="s">
         <v>266</v>
       </c>
@@ -3189,6 +3657,9 @@
       <c r="D136" t="s">
         <v>239</v>
       </c>
+      <c r="E136" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -3203,6 +3674,9 @@
       <c r="D137" t="s">
         <v>223</v>
       </c>
+      <c r="E137" t="s">
+        <v>283</v>
+      </c>
       <c r="F137" t="s">
         <v>267</v>
       </c>
@@ -3220,6 +3694,9 @@
       <c r="D138" t="s">
         <v>239</v>
       </c>
+      <c r="E138" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -3234,6 +3711,9 @@
       <c r="D139" t="s">
         <v>241</v>
       </c>
+      <c r="E139" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -3248,6 +3728,9 @@
       <c r="D140" t="s">
         <v>241</v>
       </c>
+      <c r="E140" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -3262,6 +3745,9 @@
       <c r="D141" t="s">
         <v>223</v>
       </c>
+      <c r="E141" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3276,6 +3762,9 @@
       <c r="D142" t="s">
         <v>241</v>
       </c>
+      <c r="E142" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -3290,6 +3779,9 @@
       <c r="D143" t="s">
         <v>223</v>
       </c>
+      <c r="E143" t="s">
+        <v>283</v>
+      </c>
       <c r="F143" t="s">
         <v>268</v>
       </c>
@@ -3307,6 +3799,9 @@
       <c r="D144" t="s">
         <v>223</v>
       </c>
+      <c r="E144" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -3321,6 +3816,9 @@
       <c r="D145" t="s">
         <v>241</v>
       </c>
+      <c r="E145" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -3335,6 +3833,9 @@
       <c r="D146" t="s">
         <v>241</v>
       </c>
+      <c r="E146" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -3349,6 +3850,9 @@
       <c r="D147" t="s">
         <v>269</v>
       </c>
+      <c r="E147" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -3363,6 +3867,9 @@
       <c r="D148" t="s">
         <v>225</v>
       </c>
+      <c r="E148" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -3377,6 +3884,9 @@
       <c r="D149" t="s">
         <v>225</v>
       </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
       <c r="F149" t="s">
         <v>270</v>
       </c>
@@ -3394,6 +3904,9 @@
       <c r="D150" t="s">
         <v>241</v>
       </c>
+      <c r="E150" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -3408,6 +3921,9 @@
       <c r="D151" t="s">
         <v>241</v>
       </c>
+      <c r="E151" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3433,6 +3949,9 @@
       <c r="D153" t="s">
         <v>269</v>
       </c>
+      <c r="E153" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -3447,6 +3966,9 @@
       <c r="D154" t="s">
         <v>241</v>
       </c>
+      <c r="E154" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -3472,6 +3994,9 @@
       <c r="D156" t="s">
         <v>241</v>
       </c>
+      <c r="E156" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -3486,6 +4011,9 @@
       <c r="D157" t="s">
         <v>241</v>
       </c>
+      <c r="E157" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -3500,6 +4028,9 @@
       <c r="D158" t="s">
         <v>241</v>
       </c>
+      <c r="E158" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -3514,6 +4045,9 @@
       <c r="D159" t="s">
         <v>241</v>
       </c>
+      <c r="E159" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -3528,6 +4062,9 @@
       <c r="D160" t="s">
         <v>241</v>
       </c>
+      <c r="E160" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -3542,6 +4079,9 @@
       <c r="D161" t="s">
         <v>241</v>
       </c>
+      <c r="E161" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3556,6 +4096,9 @@
       <c r="D162" t="s">
         <v>225</v>
       </c>
+      <c r="E162" t="s">
+        <v>285</v>
+      </c>
       <c r="F162" t="s">
         <v>271</v>
       </c>
@@ -3573,6 +4116,9 @@
       <c r="D163" t="s">
         <v>241</v>
       </c>
+      <c r="E163" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -3587,6 +4133,9 @@
       <c r="D164" t="s">
         <v>241</v>
       </c>
+      <c r="E164" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -3601,6 +4150,9 @@
       <c r="D165" t="s">
         <v>223</v>
       </c>
+      <c r="E165" t="s">
+        <v>283</v>
+      </c>
       <c r="F165" t="s">
         <v>272</v>
       </c>
@@ -3618,6 +4170,9 @@
       <c r="D166" t="s">
         <v>251</v>
       </c>
+      <c r="E166" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -3632,6 +4187,9 @@
       <c r="D167" t="s">
         <v>224</v>
       </c>
+      <c r="E167" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -3646,6 +4204,9 @@
       <c r="D168" t="s">
         <v>224</v>
       </c>
+      <c r="E168" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -3671,6 +4232,9 @@
       <c r="D170" t="s">
         <v>273</v>
       </c>
+      <c r="E170" t="s">
+        <v>308</v>
+      </c>
       <c r="F170" t="s">
         <v>274</v>
       </c>
@@ -3688,6 +4252,9 @@
       <c r="D171" t="s">
         <v>223</v>
       </c>
+      <c r="E171" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3702,6 +4269,9 @@
       <c r="D172" t="s">
         <v>241</v>
       </c>
+      <c r="E172" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -3716,6 +4286,9 @@
       <c r="D173" t="s">
         <v>241</v>
       </c>
+      <c r="E173" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -3730,6 +4303,9 @@
       <c r="D174" t="s">
         <v>223</v>
       </c>
+      <c r="E174" t="s">
+        <v>283</v>
+      </c>
       <c r="F174" t="s">
         <v>275</v>
       </c>
@@ -3747,6 +4323,9 @@
       <c r="D175" t="s">
         <v>241</v>
       </c>
+      <c r="E175" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -3761,6 +4340,9 @@
       <c r="D176" t="s">
         <v>241</v>
       </c>
+      <c r="E176" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -3775,6 +4357,9 @@
       <c r="D177" t="s">
         <v>247</v>
       </c>
+      <c r="E177" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -3789,6 +4374,9 @@
       <c r="D178" t="s">
         <v>232</v>
       </c>
+      <c r="E178" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -3803,6 +4391,9 @@
       <c r="D179" t="s">
         <v>234</v>
       </c>
+      <c r="E179" t="s">
+        <v>289</v>
+      </c>
       <c r="F179" t="s">
         <v>276</v>
       </c>
@@ -3820,6 +4411,9 @@
       <c r="D180" t="s">
         <v>234</v>
       </c>
+      <c r="E180" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -3834,6 +4428,9 @@
       <c r="D181" t="s">
         <v>227</v>
       </c>
+      <c r="E181" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -3848,6 +4445,9 @@
       <c r="D182" t="s">
         <v>241</v>
       </c>
+      <c r="E182" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -3862,6 +4462,9 @@
       <c r="D183" t="s">
         <v>241</v>
       </c>
+      <c r="E183" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -3876,6 +4479,9 @@
       <c r="D184" t="s">
         <v>241</v>
       </c>
+      <c r="E184" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -3890,6 +4496,9 @@
       <c r="D185" t="s">
         <v>241</v>
       </c>
+      <c r="E185" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -3904,6 +4513,9 @@
       <c r="D186" t="s">
         <v>241</v>
       </c>
+      <c r="E186" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -3918,6 +4530,9 @@
       <c r="D187" t="s">
         <v>223</v>
       </c>
+      <c r="E187" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -3932,6 +4547,9 @@
       <c r="D188" t="s">
         <v>241</v>
       </c>
+      <c r="E188" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -3946,6 +4564,9 @@
       <c r="D189" t="s">
         <v>241</v>
       </c>
+      <c r="E189" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -3960,6 +4581,9 @@
       <c r="D190" t="s">
         <v>225</v>
       </c>
+      <c r="E190" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
@@ -3974,6 +4598,9 @@
       <c r="D191" t="s">
         <v>277</v>
       </c>
+      <c r="E191" t="s">
+        <v>309</v>
+      </c>
       <c r="F191" t="s">
         <v>278</v>
       </c>
@@ -3991,6 +4618,9 @@
       <c r="D192" t="s">
         <v>247</v>
       </c>
+      <c r="E192" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -4005,6 +4635,9 @@
       <c r="D193" t="s">
         <v>247</v>
       </c>
+      <c r="E193" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -4019,6 +4652,9 @@
       <c r="D194" t="s">
         <v>247</v>
       </c>
+      <c r="E194" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
@@ -4033,6 +4669,9 @@
       <c r="D195" t="s">
         <v>279</v>
       </c>
+      <c r="E195" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -4047,6 +4686,9 @@
       <c r="D196" t="s">
         <v>269</v>
       </c>
+      <c r="E196" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -4061,6 +4703,9 @@
       <c r="D197" t="s">
         <v>241</v>
       </c>
+      <c r="E197" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -4075,6 +4720,9 @@
       <c r="D198" t="s">
         <v>234</v>
       </c>
+      <c r="E198" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -4089,6 +4737,9 @@
       <c r="D199" t="s">
         <v>234</v>
       </c>
+      <c r="E199" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -4103,6 +4754,9 @@
       <c r="D200" t="s">
         <v>241</v>
       </c>
+      <c r="E200" t="s">
+        <v>304</v>
+      </c>
       <c r="F200" t="s">
         <v>280</v>
       </c>
@@ -4120,6 +4774,9 @@
       <c r="D201" t="s">
         <v>241</v>
       </c>
+      <c r="E201" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -4134,6 +4791,9 @@
       <c r="D202" t="s">
         <v>241</v>
       </c>
+      <c r="E202" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -4148,6 +4808,9 @@
       <c r="D203" t="s">
         <v>225</v>
       </c>
+      <c r="E203" t="s">
+        <v>285</v>
+      </c>
       <c r="F203" t="s">
         <v>281</v>
       </c>
@@ -4165,6 +4828,9 @@
       <c r="D204" t="s">
         <v>241</v>
       </c>
+      <c r="E204" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
@@ -4179,6 +4845,9 @@
       <c r="D205" t="s">
         <v>282</v>
       </c>
+      <c r="E205" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
@@ -4193,6 +4862,9 @@
       <c r="D206" t="s">
         <v>227</v>
       </c>
+      <c r="E206" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
@@ -4207,6 +4879,9 @@
       <c r="D207" t="s">
         <v>247</v>
       </c>
+      <c r="E207" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -4221,8 +4896,11 @@
       <c r="D208" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>203</v>
       </c>
@@ -4235,8 +4913,11 @@
       <c r="D209" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>204</v>
       </c>
@@ -4249,8 +4930,11 @@
       <c r="D210" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>205</v>
       </c>
@@ -4263,8 +4947,11 @@
       <c r="D211" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>206</v>
       </c>
@@ -4277,8 +4964,11 @@
       <c r="D212" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>207</v>
       </c>
@@ -4291,8 +4981,11 @@
       <c r="D213" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>208</v>
       </c>
@@ -4305,8 +4998,11 @@
       <c r="D214" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>209</v>
       </c>
@@ -4319,8 +5015,11 @@
       <c r="D215" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
@@ -4333,8 +5032,11 @@
       <c r="D216" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>211</v>
       </c>
@@ -4347,8 +5049,11 @@
       <c r="D217" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>175</v>
       </c>
@@ -4359,7 +5064,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>212</v>
       </c>
@@ -4372,8 +5077,11 @@
       <c r="D219" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>213</v>
       </c>
@@ -4386,8 +5094,11 @@
       <c r="D220" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>214</v>
       </c>
@@ -4400,8 +5111,11 @@
       <c r="D221" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>175</v>
       </c>
@@ -4412,7 +5126,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>215</v>
       </c>
@@ -4425,8 +5139,11 @@
       <c r="D223" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>216</v>
       </c>
@@ -4439,8 +5156,11 @@
       <c r="D224" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>217</v>
       </c>
@@ -4452,6 +5172,9 @@
       </c>
       <c r="D225" t="s">
         <v>239</v>
+      </c>
+      <c r="E225" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
+++ b/2020/Excels/Nobel Prize Winners/Nobel_Laureates.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_00 UN Volunteers\Side-Projects\Nobel Prize Winners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D88260-9019-4ADF-9926-FA8680FA2BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8CE4A-E0CB-4A6A-8985-42013CE28D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="45" windowWidth="12135" windowHeight="15585" xr2:uid="{848C2F06-2C61-4C99-853F-34F3C8B0E17F}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="14115" windowHeight="15585" xr2:uid="{848C2F06-2C61-4C99-853F-34F3C8B0E17F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nobel_Physics" sheetId="1" r:id="rId1"/>
+    <sheet name="Nobel_Laureates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="313">
   <si>
     <t>CountryName</t>
   </si>
@@ -966,6 +966,12 @@
   </si>
   <si>
     <t>HKG</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Physics</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9720BC-6C99-4361-B521-98BEB9A4DD49}">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,12 +1338,12 @@
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1348,16 +1354,19 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1368,13 +1377,16 @@
         <v>218</v>
       </c>
       <c r="D2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" t="s">
         <v>223</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1385,13 +1397,16 @@
         <v>218</v>
       </c>
       <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" t="s">
         <v>224</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1402,13 +1417,16 @@
         <v>218</v>
       </c>
       <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
         <v>224</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1419,13 +1437,16 @@
         <v>218</v>
       </c>
       <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" t="s">
         <v>225</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1436,13 +1457,16 @@
         <v>219</v>
       </c>
       <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
         <v>226</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1453,13 +1477,16 @@
         <v>218</v>
       </c>
       <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1470,13 +1497,16 @@
         <v>218</v>
       </c>
       <c r="D8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" t="s">
         <v>227</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1487,16 +1517,19 @@
         <v>218</v>
       </c>
       <c r="D9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" t="s">
         <v>228</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>295</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1507,13 +1540,16 @@
         <v>218</v>
       </c>
       <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
         <v>227</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1524,16 +1560,19 @@
         <v>218</v>
       </c>
       <c r="D11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
         <v>226</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>286</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1544,13 +1583,16 @@
         <v>218</v>
       </c>
       <c r="D12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
         <v>231</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1561,13 +1603,16 @@
         <v>218</v>
       </c>
       <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
         <v>232</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1578,16 +1623,19 @@
         <v>218</v>
       </c>
       <c r="D14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" t="s">
         <v>223</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>283</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1598,13 +1646,16 @@
         <v>218</v>
       </c>
       <c r="D15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" t="s">
         <v>224</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1615,16 +1666,19 @@
         <v>218</v>
       </c>
       <c r="D16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" t="s">
         <v>234</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>289</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1635,13 +1689,16 @@
         <v>218</v>
       </c>
       <c r="D17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" t="s">
         <v>236</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1652,13 +1709,16 @@
         <v>218</v>
       </c>
       <c r="D18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" t="s">
         <v>224</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,13 +1729,16 @@
         <v>218</v>
       </c>
       <c r="D19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" t="s">
         <v>223</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1686,13 +1749,16 @@
         <v>218</v>
       </c>
       <c r="D20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" t="s">
         <v>227</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,21 +1769,24 @@
         <v>218</v>
       </c>
       <c r="D21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" t="s">
         <v>237</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>1916</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1728,13 +1797,16 @@
         <v>218</v>
       </c>
       <c r="D23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" t="s">
         <v>227</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1745,16 +1817,19 @@
         <v>218</v>
       </c>
       <c r="D24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" t="s">
         <v>223</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>283</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1765,13 +1840,16 @@
         <v>218</v>
       </c>
       <c r="D25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" t="s">
         <v>223</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1782,13 +1860,16 @@
         <v>218</v>
       </c>
       <c r="D26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" t="s">
         <v>239</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1799,13 +1880,16 @@
         <v>218</v>
       </c>
       <c r="D27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27" t="s">
         <v>223</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1816,13 +1900,16 @@
         <v>218</v>
       </c>
       <c r="D28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" t="s">
         <v>240</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1833,13 +1920,16 @@
         <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1850,13 +1940,16 @@
         <v>218</v>
       </c>
       <c r="D30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" t="s">
         <v>236</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1867,13 +1960,16 @@
         <v>218</v>
       </c>
       <c r="D31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" t="s">
         <v>223</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1884,13 +1980,16 @@
         <v>218</v>
       </c>
       <c r="D32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1901,13 +2000,16 @@
         <v>218</v>
       </c>
       <c r="D33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" t="s">
         <v>225</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1918,13 +2020,16 @@
         <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1935,13 +2040,16 @@
         <v>218</v>
       </c>
       <c r="D35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" t="s">
         <v>242</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1952,13 +2060,16 @@
         <v>218</v>
       </c>
       <c r="D36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" t="s">
         <v>227</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1969,13 +2080,16 @@
         <v>218</v>
       </c>
       <c r="D37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" t="s">
         <v>225</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1986,21 +2100,24 @@
         <v>218</v>
       </c>
       <c r="D38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" t="s">
         <v>243</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>1931</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2011,13 +2128,16 @@
         <v>218</v>
       </c>
       <c r="D40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
         <v>223</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2028,13 +2148,16 @@
         <v>218</v>
       </c>
       <c r="D41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" t="s">
         <v>244</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2045,21 +2168,24 @@
         <v>218</v>
       </c>
       <c r="D42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" t="s">
         <v>227</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>1934</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2070,13 +2196,16 @@
         <v>218</v>
       </c>
       <c r="D44" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" t="s">
         <v>227</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2087,13 +2216,16 @@
         <v>218</v>
       </c>
       <c r="D45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" t="s">
         <v>244</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2104,13 +2236,16 @@
         <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2121,13 +2256,16 @@
         <v>218</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2138,13 +2276,16 @@
         <v>218</v>
       </c>
       <c r="D48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48" t="s">
         <v>227</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2155,13 +2296,16 @@
         <v>218</v>
       </c>
       <c r="D49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" t="s">
         <v>232</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2172,37 +2316,40 @@
         <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>1940</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>1941</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>1942</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2213,16 +2360,19 @@
         <v>218</v>
       </c>
       <c r="D54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E54" t="s">
         <v>226</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>286</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2233,16 +2383,19 @@
         <v>218</v>
       </c>
       <c r="D55" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" t="s">
         <v>226</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2253,13 +2406,16 @@
         <v>218</v>
       </c>
       <c r="D56" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" t="s">
         <v>244</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2270,13 +2426,16 @@
         <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2287,13 +2446,16 @@
         <v>218</v>
       </c>
       <c r="D58" t="s">
+        <v>312</v>
+      </c>
+      <c r="E58" t="s">
         <v>227</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2304,13 +2466,16 @@
         <v>218</v>
       </c>
       <c r="D59" t="s">
+        <v>312</v>
+      </c>
+      <c r="E59" t="s">
         <v>227</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2321,13 +2486,16 @@
         <v>218</v>
       </c>
       <c r="D60" t="s">
+        <v>312</v>
+      </c>
+      <c r="E60" t="s">
         <v>247</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2338,13 +2506,16 @@
         <v>218</v>
       </c>
       <c r="D61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" t="s">
         <v>227</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2355,13 +2526,16 @@
         <v>218</v>
       </c>
       <c r="D62" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" t="s">
         <v>227</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2372,13 +2546,16 @@
         <v>218</v>
       </c>
       <c r="D63" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" t="s">
         <v>248</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2389,13 +2566,16 @@
         <v>218</v>
       </c>
       <c r="D64" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
         <v>239</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2406,13 +2586,16 @@
         <v>218</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2423,13 +2606,16 @@
         <v>218</v>
       </c>
       <c r="D66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" t="s">
         <v>224</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2440,16 +2626,19 @@
         <v>218</v>
       </c>
       <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
         <v>226</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>286</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2460,13 +2649,16 @@
         <v>218</v>
       </c>
       <c r="D68" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" t="s">
         <v>223</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2477,13 +2669,16 @@
         <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2494,16 +2689,19 @@
         <v>218</v>
       </c>
       <c r="D70" t="s">
+        <v>312</v>
+      </c>
+      <c r="E70" t="s">
         <v>225</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>285</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2514,13 +2712,16 @@
         <v>218</v>
       </c>
       <c r="D71" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" t="s">
         <v>227</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2531,13 +2732,16 @@
         <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2548,13 +2752,16 @@
         <v>218</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E73" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2565,13 +2772,16 @@
         <v>218</v>
       </c>
       <c r="D74" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" t="s">
         <v>251</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2582,13 +2792,16 @@
         <v>218</v>
       </c>
       <c r="D75" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" t="s">
         <v>251</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2599,13 +2812,16 @@
         <v>218</v>
       </c>
       <c r="D76" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" t="s">
         <v>234</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2616,13 +2832,16 @@
         <v>218</v>
       </c>
       <c r="D77" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" t="s">
         <v>234</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2633,13 +2852,16 @@
         <v>218</v>
       </c>
       <c r="D78" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" t="s">
         <v>234</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2650,13 +2872,16 @@
         <v>218</v>
       </c>
       <c r="D79" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" t="s">
         <v>232</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2667,13 +2892,16 @@
         <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F80" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2684,13 +2912,16 @@
         <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2701,13 +2932,16 @@
         <v>218</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F82" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2718,13 +2952,16 @@
         <v>218</v>
       </c>
       <c r="D83" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" t="s">
         <v>223</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2735,16 +2972,19 @@
         <v>218</v>
       </c>
       <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" t="s">
         <v>234</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -2755,16 +2995,19 @@
         <v>218</v>
       </c>
       <c r="D85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
         <v>253</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>296</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2775,16 +3018,19 @@
         <v>219</v>
       </c>
       <c r="D86" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" t="s">
         <v>226</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>286</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2795,13 +3041,16 @@
         <v>218</v>
       </c>
       <c r="D87" t="s">
+        <v>312</v>
+      </c>
+      <c r="E87" t="s">
         <v>223</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2812,13 +3061,16 @@
         <v>218</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E88" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2829,16 +3081,19 @@
         <v>218</v>
       </c>
       <c r="D89" t="s">
+        <v>312</v>
+      </c>
+      <c r="E89" t="s">
         <v>234</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>289</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2849,16 +3104,19 @@
         <v>218</v>
       </c>
       <c r="D90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" t="s">
         <v>234</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>289</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2869,13 +3127,16 @@
         <v>218</v>
       </c>
       <c r="D91" t="s">
+        <v>312</v>
+      </c>
+      <c r="E91" t="s">
         <v>247</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2886,13 +3147,16 @@
         <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E92" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2903,13 +3167,16 @@
         <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F93" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2920,16 +3187,19 @@
         <v>218</v>
       </c>
       <c r="D94" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" t="s">
         <v>225</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>285</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -2940,16 +3210,19 @@
         <v>218</v>
       </c>
       <c r="D95" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" t="s">
         <v>225</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>285</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -2960,13 +3233,16 @@
         <v>218</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2977,13 +3253,16 @@
         <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2994,13 +3273,16 @@
         <v>218</v>
       </c>
       <c r="D98" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" t="s">
         <v>236</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3011,13 +3293,16 @@
         <v>218</v>
       </c>
       <c r="D99" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" t="s">
         <v>225</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3028,13 +3313,16 @@
         <v>218</v>
       </c>
       <c r="D100" t="s">
+        <v>312</v>
+      </c>
+      <c r="E100" t="s">
         <v>253</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>70</v>
       </c>
@@ -3045,13 +3333,16 @@
         <v>218</v>
       </c>
       <c r="D101" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -3062,13 +3353,16 @@
         <v>218</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -3079,13 +3373,16 @@
         <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E103" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -3096,13 +3393,16 @@
         <v>218</v>
       </c>
       <c r="D104" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" t="s">
         <v>247</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
@@ -3113,13 +3413,16 @@
         <v>218</v>
       </c>
       <c r="D105" t="s">
+        <v>312</v>
+      </c>
+      <c r="E105" t="s">
         <v>260</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
@@ -3130,13 +3433,16 @@
         <v>218</v>
       </c>
       <c r="D106" t="s">
+        <v>312</v>
+      </c>
+      <c r="E106" t="s">
         <v>227</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
@@ -3147,13 +3453,16 @@
         <v>218</v>
       </c>
       <c r="D107" t="s">
+        <v>312</v>
+      </c>
+      <c r="E107" t="s">
         <v>227</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
@@ -3164,13 +3473,16 @@
         <v>218</v>
       </c>
       <c r="D108" t="s">
+        <v>312</v>
+      </c>
+      <c r="E108" t="s">
         <v>227</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
@@ -3181,13 +3493,16 @@
         <v>218</v>
       </c>
       <c r="D109" t="s">
+        <v>312</v>
+      </c>
+      <c r="E109" t="s">
         <v>240</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
@@ -3198,13 +3513,16 @@
         <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E110" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
@@ -3215,13 +3533,16 @@
         <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E111" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
@@ -3232,13 +3553,16 @@
         <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E112" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F112" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
@@ -3249,13 +3573,16 @@
         <v>218</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E113" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F113" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -3266,13 +3593,16 @@
         <v>218</v>
       </c>
       <c r="D114" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E114" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F114" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
@@ -3283,13 +3613,16 @@
         <v>218</v>
       </c>
       <c r="D115" t="s">
+        <v>312</v>
+      </c>
+      <c r="E115" t="s">
         <v>227</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
@@ -3300,13 +3633,16 @@
         <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E116" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F116" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
@@ -3317,16 +3653,19 @@
         <v>218</v>
       </c>
       <c r="D117" t="s">
+        <v>312</v>
+      </c>
+      <c r="E117" t="s">
         <v>234</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>289</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
@@ -3337,13 +3676,16 @@
         <v>218</v>
       </c>
       <c r="D118" t="s">
+        <v>312</v>
+      </c>
+      <c r="E118" t="s">
         <v>223</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
@@ -3354,13 +3696,16 @@
         <v>218</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E119" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F119" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
@@ -3371,13 +3716,16 @@
         <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E120" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F120" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
@@ -3388,16 +3736,19 @@
         <v>218</v>
       </c>
       <c r="D121" t="s">
+        <v>312</v>
+      </c>
+      <c r="E121" t="s">
         <v>262</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>298</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
@@ -3408,13 +3759,16 @@
         <v>218</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E122" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F122" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
@@ -3425,13 +3779,16 @@
         <v>218</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E123" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F123" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
@@ -3442,13 +3799,16 @@
         <v>218</v>
       </c>
       <c r="D124" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E124" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F124" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
@@ -3459,13 +3819,16 @@
         <v>218</v>
       </c>
       <c r="D125" t="s">
+        <v>312</v>
+      </c>
+      <c r="E125" t="s">
         <v>224</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -3476,13 +3839,16 @@
         <v>218</v>
       </c>
       <c r="D126" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E126" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F126" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
@@ -3493,13 +3859,16 @@
         <v>218</v>
       </c>
       <c r="D127" t="s">
+        <v>312</v>
+      </c>
+      <c r="E127" t="s">
         <v>236</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
@@ -3510,13 +3879,16 @@
         <v>218</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E128" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F128" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
@@ -3527,16 +3899,19 @@
         <v>218</v>
       </c>
       <c r="D129" t="s">
+        <v>312</v>
+      </c>
+      <c r="E129" t="s">
         <v>262</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>298</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
@@ -3547,13 +3922,16 @@
         <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E130" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F130" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
@@ -3564,13 +3942,16 @@
         <v>218</v>
       </c>
       <c r="D131" t="s">
+        <v>312</v>
+      </c>
+      <c r="E131" t="s">
         <v>232</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
@@ -3581,13 +3962,16 @@
         <v>218</v>
       </c>
       <c r="D132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E132" t="s">
         <v>224</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
@@ -3598,16 +3982,19 @@
         <v>218</v>
       </c>
       <c r="D133" t="s">
+        <v>312</v>
+      </c>
+      <c r="E133" t="s">
         <v>226</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>286</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
@@ -3618,13 +4005,16 @@
         <v>218</v>
       </c>
       <c r="D134" t="s">
+        <v>312</v>
+      </c>
+      <c r="E134" t="s">
         <v>223</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
@@ -3635,16 +4025,19 @@
         <v>218</v>
       </c>
       <c r="D135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E135" t="s">
         <v>223</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>283</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
@@ -3655,13 +4048,16 @@
         <v>218</v>
       </c>
       <c r="D136" t="s">
+        <v>312</v>
+      </c>
+      <c r="E136" t="s">
         <v>239</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -3672,16 +4068,19 @@
         <v>218</v>
       </c>
       <c r="D137" t="s">
+        <v>312</v>
+      </c>
+      <c r="E137" t="s">
         <v>223</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>283</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
@@ -3692,13 +4091,16 @@
         <v>218</v>
       </c>
       <c r="D138" t="s">
+        <v>312</v>
+      </c>
+      <c r="E138" t="s">
         <v>239</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
@@ -3709,13 +4111,16 @@
         <v>218</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E139" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F139" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
@@ -3726,13 +4131,16 @@
         <v>218</v>
       </c>
       <c r="D140" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
@@ -3743,13 +4151,16 @@
         <v>218</v>
       </c>
       <c r="D141" t="s">
+        <v>312</v>
+      </c>
+      <c r="E141" t="s">
         <v>223</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
@@ -3760,13 +4171,16 @@
         <v>218</v>
       </c>
       <c r="D142" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E142" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
@@ -3777,16 +4191,19 @@
         <v>218</v>
       </c>
       <c r="D143" t="s">
+        <v>312</v>
+      </c>
+      <c r="E143" t="s">
         <v>223</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>283</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
@@ -3797,13 +4214,16 @@
         <v>218</v>
       </c>
       <c r="D144" t="s">
+        <v>312</v>
+      </c>
+      <c r="E144" t="s">
         <v>223</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -3814,13 +4234,16 @@
         <v>218</v>
       </c>
       <c r="D145" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E145" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>142</v>
       </c>
@@ -3831,13 +4254,16 @@
         <v>218</v>
       </c>
       <c r="D146" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E146" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>143</v>
       </c>
@@ -3848,13 +4274,16 @@
         <v>218</v>
       </c>
       <c r="D147" t="s">
+        <v>312</v>
+      </c>
+      <c r="E147" t="s">
         <v>269</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>144</v>
       </c>
@@ -3865,13 +4294,16 @@
         <v>218</v>
       </c>
       <c r="D148" t="s">
+        <v>312</v>
+      </c>
+      <c r="E148" t="s">
         <v>225</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>145</v>
       </c>
@@ -3882,16 +4314,19 @@
         <v>218</v>
       </c>
       <c r="D149" t="s">
+        <v>312</v>
+      </c>
+      <c r="E149" t="s">
         <v>225</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>285</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
@@ -3902,13 +4337,16 @@
         <v>218</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E150" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>147</v>
       </c>
@@ -3919,13 +4357,16 @@
         <v>218</v>
       </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E151" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>175</v>
       </c>
@@ -3936,7 +4377,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>148</v>
       </c>
@@ -3947,13 +4388,16 @@
         <v>218</v>
       </c>
       <c r="D153" t="s">
+        <v>312</v>
+      </c>
+      <c r="E153" t="s">
         <v>269</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>149</v>
       </c>
@@ -3964,13 +4408,16 @@
         <v>218</v>
       </c>
       <c r="D154" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E154" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>175</v>
       </c>
@@ -3981,7 +4428,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
@@ -3992,13 +4439,16 @@
         <v>218</v>
       </c>
       <c r="D156" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E156" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
@@ -4009,13 +4459,16 @@
         <v>218</v>
       </c>
       <c r="D157" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E157" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
@@ -4026,13 +4479,16 @@
         <v>218</v>
       </c>
       <c r="D158" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E158" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F158" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
@@ -4043,13 +4499,16 @@
         <v>218</v>
       </c>
       <c r="D159" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E159" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>154</v>
       </c>
@@ -4060,13 +4519,16 @@
         <v>218</v>
       </c>
       <c r="D160" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E160" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F160" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>155</v>
       </c>
@@ -4077,13 +4539,16 @@
         <v>218</v>
       </c>
       <c r="D161" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E161" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>156</v>
       </c>
@@ -4094,16 +4559,19 @@
         <v>218</v>
       </c>
       <c r="D162" t="s">
+        <v>312</v>
+      </c>
+      <c r="E162" t="s">
         <v>225</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>285</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>157</v>
       </c>
@@ -4114,13 +4582,16 @@
         <v>218</v>
       </c>
       <c r="D163" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E163" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
@@ -4131,13 +4602,16 @@
         <v>218</v>
       </c>
       <c r="D164" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E164" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F164" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>159</v>
       </c>
@@ -4148,16 +4622,19 @@
         <v>218</v>
       </c>
       <c r="D165" t="s">
+        <v>312</v>
+      </c>
+      <c r="E165" t="s">
         <v>223</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>283</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>160</v>
       </c>
@@ -4168,13 +4645,16 @@
         <v>218</v>
       </c>
       <c r="D166" t="s">
+        <v>312</v>
+      </c>
+      <c r="E166" t="s">
         <v>251</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>161</v>
       </c>
@@ -4185,13 +4665,16 @@
         <v>218</v>
       </c>
       <c r="D167" t="s">
+        <v>312</v>
+      </c>
+      <c r="E167" t="s">
         <v>224</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -4202,13 +4685,16 @@
         <v>218</v>
       </c>
       <c r="D168" t="s">
+        <v>312</v>
+      </c>
+      <c r="E168" t="s">
         <v>224</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>175</v>
       </c>
@@ -4219,7 +4705,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>163</v>
       </c>
@@ -4230,16 +4716,19 @@
         <v>218</v>
       </c>
       <c r="D170" t="s">
+        <v>312</v>
+      </c>
+      <c r="E170" t="s">
         <v>273</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>308</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>164</v>
       </c>
@@ -4250,13 +4739,16 @@
         <v>218</v>
       </c>
       <c r="D171" t="s">
+        <v>312</v>
+      </c>
+      <c r="E171" t="s">
         <v>223</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>165</v>
       </c>
@@ -4267,13 +4759,16 @@
         <v>218</v>
       </c>
       <c r="D172" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E172" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F172" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>166</v>
       </c>
@@ -4284,13 +4779,16 @@
         <v>218</v>
       </c>
       <c r="D173" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E173" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F173" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>167</v>
       </c>
@@ -4301,16 +4799,19 @@
         <v>218</v>
       </c>
       <c r="D174" t="s">
+        <v>312</v>
+      </c>
+      <c r="E174" t="s">
         <v>223</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>283</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>168</v>
       </c>
@@ -4321,13 +4822,16 @@
         <v>218</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E175" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F175" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>169</v>
       </c>
@@ -4338,13 +4842,16 @@
         <v>218</v>
       </c>
       <c r="D176" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E176" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F176" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>170</v>
       </c>
@@ -4355,13 +4862,16 @@
         <v>218</v>
       </c>
       <c r="D177" t="s">
+        <v>312</v>
+      </c>
+      <c r="E177" t="s">
         <v>247</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>171</v>
       </c>
@@ -4372,13 +4882,16 @@
         <v>218</v>
       </c>
       <c r="D178" t="s">
+        <v>312</v>
+      </c>
+      <c r="E178" t="s">
         <v>232</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
@@ -4389,16 +4902,19 @@
         <v>218</v>
       </c>
       <c r="D179" t="s">
+        <v>312</v>
+      </c>
+      <c r="E179" t="s">
         <v>234</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>289</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>173</v>
       </c>
@@ -4409,13 +4925,16 @@
         <v>218</v>
       </c>
       <c r="D180" t="s">
+        <v>312</v>
+      </c>
+      <c r="E180" t="s">
         <v>234</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>174</v>
       </c>
@@ -4426,13 +4945,16 @@
         <v>218</v>
       </c>
       <c r="D181" t="s">
+        <v>312</v>
+      </c>
+      <c r="E181" t="s">
         <v>227</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>176</v>
       </c>
@@ -4443,13 +4965,16 @@
         <v>218</v>
       </c>
       <c r="D182" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E182" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F182" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>177</v>
       </c>
@@ -4460,13 +4985,16 @@
         <v>218</v>
       </c>
       <c r="D183" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E183" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F183" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>178</v>
       </c>
@@ -4477,13 +5005,16 @@
         <v>218</v>
       </c>
       <c r="D184" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E184" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F184" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>179</v>
       </c>
@@ -4494,13 +5025,16 @@
         <v>218</v>
       </c>
       <c r="D185" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E185" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F185" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>180</v>
       </c>
@@ -4511,13 +5045,16 @@
         <v>218</v>
       </c>
       <c r="D186" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E186" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F186" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -4528,13 +5065,16 @@
         <v>218</v>
       </c>
       <c r="D187" t="s">
+        <v>312</v>
+      </c>
+      <c r="E187" t="s">
         <v>223</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>182</v>
       </c>
@@ -4545,13 +5085,16 @@
         <v>218</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E188" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F188" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
@@ -4562,13 +5105,16 @@
         <v>218</v>
       </c>
       <c r="D189" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E189" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F189" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>184</v>
       </c>
@@ -4579,13 +5125,16 @@
         <v>218</v>
       </c>
       <c r="D190" t="s">
+        <v>312</v>
+      </c>
+      <c r="E190" t="s">
         <v>225</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>185</v>
       </c>
@@ -4596,16 +5145,19 @@
         <v>218</v>
       </c>
       <c r="D191" t="s">
+        <v>312</v>
+      </c>
+      <c r="E191" t="s">
         <v>277</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>309</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>186</v>
       </c>
@@ -4616,13 +5168,16 @@
         <v>218</v>
       </c>
       <c r="D192" t="s">
+        <v>312</v>
+      </c>
+      <c r="E192" t="s">
         <v>247</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>187</v>
       </c>
@@ -4633,13 +5188,16 @@
         <v>218</v>
       </c>
       <c r="D193" t="s">
+        <v>312</v>
+      </c>
+      <c r="E193" t="s">
         <v>247</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>188</v>
       </c>
@@ -4650,13 +5208,16 @@
         <v>218</v>
       </c>
       <c r="D194" t="s">
+        <v>312</v>
+      </c>
+      <c r="E194" t="s">
         <v>247</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>189</v>
       </c>
@@ -4667,13 +5228,16 @@
         <v>218</v>
       </c>
       <c r="D195" t="s">
+        <v>312</v>
+      </c>
+      <c r="E195" t="s">
         <v>279</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>190</v>
       </c>
@@ -4684,13 +5248,16 @@
         <v>218</v>
       </c>
       <c r="D196" t="s">
+        <v>312</v>
+      </c>
+      <c r="E196" t="s">
         <v>269</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>191</v>
       </c>
@@ -4701,13 +5268,16 @@
         <v>218</v>
       </c>
       <c r="D197" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E197" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F197" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>192</v>
       </c>
@@ -4718,13 +5288,16 @@
         <v>218</v>
       </c>
       <c r="D198" t="s">
+        <v>312</v>
+      </c>
+      <c r="E198" t="s">
         <v>234</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
@@ -4735,13 +5308,16 @@
         <v>218</v>
       </c>
       <c r="D199" t="s">
+        <v>312</v>
+      </c>
+      <c r="E199" t="s">
         <v>234</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>194</v>
       </c>
@@ -4752,16 +5328,19 @@
         <v>218</v>
       </c>
       <c r="D200" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E200" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="F200" t="s">
+        <v>304</v>
+      </c>
+      <c r="G200" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>195</v>
       </c>
@@ -4772,13 +5351,16 @@
         <v>218</v>
       </c>
       <c r="D201" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E201" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F201" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>196</v>
       </c>
@@ -4789,13 +5371,16 @@
         <v>218</v>
       </c>
       <c r="D202" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E202" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F202" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>197</v>
       </c>
@@ -4806,16 +5391,19 @@
         <v>218</v>
       </c>
       <c r="D203" t="s">
+        <v>312</v>
+      </c>
+      <c r="E203" t="s">
         <v>225</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>285</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -4826,13 +5414,16 @@
         <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E204" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F204" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>199</v>
       </c>
@@ -4843,13 +5434,16 @@
         <v>218</v>
       </c>
       <c r="D205" t="s">
+        <v>312</v>
+      </c>
+      <c r="E205" t="s">
         <v>282</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>200</v>
       </c>
@@ -4860,13 +5454,16 @@
         <v>218</v>
       </c>
       <c r="D206" t="s">
+        <v>312</v>
+      </c>
+      <c r="E206" t="s">
         <v>227</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>201</v>
       </c>
@@ -4877,13 +5474,16 @@
         <v>218</v>
       </c>
       <c r="D207" t="s">
+        <v>312</v>
+      </c>
+      <c r="E207" t="s">
         <v>247</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>202</v>
       </c>
@@ -4894,13 +5494,16 @@
         <v>218</v>
       </c>
       <c r="D208" t="s">
+        <v>312</v>
+      </c>
+      <c r="E208" t="s">
         <v>247</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>203</v>
       </c>
@@ -4911,13 +5514,16 @@
         <v>218</v>
       </c>
       <c r="D209" t="s">
+        <v>312</v>
+      </c>
+      <c r="E209" t="s">
         <v>247</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>204</v>
       </c>
@@ -4928,13 +5534,16 @@
         <v>218</v>
       </c>
       <c r="D210" t="s">
+        <v>312</v>
+      </c>
+      <c r="E210" t="s">
         <v>247</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>205</v>
       </c>
@@ -4945,13 +5554,16 @@
         <v>218</v>
       </c>
       <c r="D211" t="s">
+        <v>312</v>
+      </c>
+      <c r="E211" t="s">
         <v>269</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>206</v>
       </c>
@@ -4962,13 +5574,16 @@
         <v>218</v>
       </c>
       <c r="D212" t="s">
+        <v>312</v>
+      </c>
+      <c r="E212" t="s">
         <v>227</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>207</v>
       </c>
@@ -4979,13 +5594,16 @@
         <v>218</v>
       </c>
       <c r="D213" t="s">
+        <v>312</v>
+      </c>
+      <c r="E213" t="s">
         <v>227</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>208</v>
       </c>
@@ -4996,13 +5614,16 @@
         <v>218</v>
       </c>
       <c r="D214" t="s">
+        <v>312</v>
+      </c>
+      <c r="E214" t="s">
         <v>227</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>209</v>
       </c>
@@ -5013,13 +5634,16 @@
         <v>218</v>
       </c>
       <c r="D215" t="s">
+        <v>312</v>
+      </c>
+      <c r="E215" t="s">
         <v>223</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
@@ -5030,13 +5654,16 @@
         <v>218</v>
       </c>
       <c r="D216" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E216" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F216" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>211</v>
       </c>
@@ -5047,13 +5674,16 @@
         <v>218</v>
       </c>
       <c r="D217" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E217" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F217" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>175</v>
       </c>
@@ -5064,7 +5694,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>212</v>
       </c>
@@ -5075,13 +5705,16 @@
         <v>218</v>
       </c>
       <c r="D219" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="E219" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F219" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>213</v>
       </c>
@@ -5092,13 +5725,16 @@
         <v>218</v>
       </c>
       <c r="D220" t="s">
+        <v>312</v>
+      </c>
+      <c r="E220" t="s">
         <v>225</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>214</v>
       </c>
@@ -5109,13 +5745,16 @@
         <v>219</v>
       </c>
       <c r="D221" t="s">
+        <v>312</v>
+      </c>
+      <c r="E221" t="s">
         <v>269</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>175</v>
       </c>
@@ -5126,7 +5765,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>215</v>
       </c>
@@ -5137,13 +5776,16 @@
         <v>218</v>
       </c>
       <c r="D223" t="s">
+        <v>312</v>
+      </c>
+      <c r="E223" t="s">
         <v>269</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>216</v>
       </c>
@@ -5154,13 +5796,16 @@
         <v>218</v>
       </c>
       <c r="D224" t="s">
+        <v>312</v>
+      </c>
+      <c r="E224" t="s">
         <v>239</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>217</v>
       </c>
@@ -5171,9 +5816,12 @@
         <v>218</v>
       </c>
       <c r="D225" t="s">
+        <v>312</v>
+      </c>
+      <c r="E225" t="s">
         <v>239</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>301</v>
       </c>
     </row>
